--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B396957-1901-494D-A78E-FEDB6E78B861}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC5218F5-9F70-4B85-ADFD-4FC37922C1D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pTHg wy2016-17 Model Results" sheetId="2" r:id="rId1"/>
+    <sheet name="wwMeHg wy2016-17 Model Results" sheetId="2" r:id="rId1"/>
     <sheet name="Inlet" sheetId="3" r:id="rId2"/>
     <sheet name="Spillway" sheetId="4" r:id="rId3"/>
     <sheet name="Outlet" sheetId="5" r:id="rId4"/>
@@ -23,8 +23,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rose, Shanna Lynn</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{C1073D22-09BC-4EF6-8C3C-89F81B4C42B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rose, Shanna Lynn:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There were four censored values for this parameter, 19 uncensored.
+Used 0.05 ng/L (one-half of the MDL) in calculations for the constituent censored data in the text file.
+-12/3/18</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="467">
   <si>
     <t>Model #</t>
   </si>
@@ -882,13 +918,556 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym1 &lt;- loadReg(wwMeHg ~model(1), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 23</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 6.6765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-01-24 to 2017-04-04</t>
+  </si>
+  <si>
+    <t>(Intercept)   -7.346    0.15587  -47.13       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.205    0.07445   16.19       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3784</t>
+  </si>
+  <si>
+    <t>R-squared: 92.58 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 59.83 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7549</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Min 25% 50%  75%  90%  95%  Max</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.02 0.02 0.02 0.02</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0 0.02 0.02 0.03 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -11.01 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7551</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym2 &lt;- loadReg(wwMeHg ~model(2), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym2</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.9364    0.19502 -40.695   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ           1.2053    0.05775  20.871   0e+00</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1348    0.03492   3.861   3e-04</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2276</t>
+  </si>
+  <si>
+    <t>R-squared: 95.75 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 72.64 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.455</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3176</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.02 0.03 0.04 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.918 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7464</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym3 &lt;- loadReg(wwMeHg ~model(3), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.3866    0.14923 -49.499  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1590    0.07479  15.498  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.5682    0.30695   1.851  0.0565</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3392</t>
+  </si>
+  <si>
+    <t>R-squared: 93.67 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 63.46 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0473</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1652</t>
+  </si>
+  <si>
+    <t>lnQ     1.126</t>
+  </si>
+  <si>
+    <t>DECTIME 1.126</t>
+  </si>
+  <si>
+    <t>Est   0   0 0.01 0.02 0.02 0.02 0.03</t>
+  </si>
+  <si>
+    <t>Obs   0   0 0.00 0.02 0.02 0.03 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.488 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7661</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym4 &lt;- loadReg(wwMeHg ~model(4), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym4</t>
+  </si>
+  <si>
+    <t>(Intercept)   -3.353     1.4682  -2.284  0.0182</t>
+  </si>
+  <si>
+    <t>lnQ            1.276     0.0777  16.422  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   -3.440     1.1813  -2.912  0.0036</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   -3.089     1.2437  -2.484  0.0110</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2795</t>
+  </si>
+  <si>
+    <t>R-squared: 95.04 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 69.1 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.8751</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               VIF</t>
+  </si>
+  <si>
+    <t>lnQ          1.475</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 11.839</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.239</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.04 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.208 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8384</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym5 &lt;- loadReg(wwMeHg ~model(5), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym5</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.9076    0.20933 -37.7758  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1946    0.06358  18.7907  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1261    0.04068   3.0998  0.0022</t>
+  </si>
+  <si>
+    <t>DECTIME       0.1306    0.29291   0.4457  0.6248</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2371</t>
+  </si>
+  <si>
+    <t>R-squared: 95.79 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 72.88 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5845</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.351</t>
+  </si>
+  <si>
+    <t>lnQ     1.163</t>
+  </si>
+  <si>
+    <t>lnQ2    1.303</t>
+  </si>
+  <si>
+    <t>DECTIME 1.466</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.02 0.03 0.03 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 6.827 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7483</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym6 &lt;- loadReg(wwMeHg ~model(6), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym6</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.3044    1.10554  -3.894  0.0002</t>
+  </si>
+  <si>
+    <t>lnQ           1.2778    0.05723  22.330  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1201    0.02910   4.127  0.0001</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -3.0007    0.87648  -3.424  0.0007</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -2.8379    0.91795  -3.092  0.0017</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1516</t>
+  </si>
+  <si>
+    <t>R-squared: 97.45 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 84.41 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5128</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0234</t>
+  </si>
+  <si>
+    <t>lnQ2         1.043</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 12.016</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.297</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.02 0.02 0.05 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 7.773 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7184</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym7 &lt;- loadReg(wwMeHg ~model(7), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym7</t>
+  </si>
+  <si>
+    <t>(Intercept)   -3.738    1.53461 -2.4360  0.0105</t>
+  </si>
+  <si>
+    <t>lnQ            1.253    0.08209 15.2623  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME        0.290    0.31892  0.9094  0.3094</t>
+  </si>
+  <si>
+    <t>sin.DECTIME   -3.072    1.25398 -2.4495  0.0101</t>
+  </si>
+  <si>
+    <t>cos.DECTIME   -2.865    1.27352 -2.2498  0.0170</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.2821</t>
+  </si>
+  <si>
+    <t>R-squared: 95.26 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 70.13 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.2355</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.0204</t>
+  </si>
+  <si>
+    <t>lnQ          1.631</t>
+  </si>
+  <si>
+    <t>DECTIME      1.461</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 13.218</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.29 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.858</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym8 &lt;- loadReg(wwMeHg ~model(8), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym8</t>
+  </si>
+  <si>
+    <t>(Intercept)  -4.1466    1.14734 -3.6141  0.0003</t>
+  </si>
+  <si>
+    <t>lnQ           1.2922    0.06193 20.8637  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.1300    0.03306  3.9329  0.0001</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1779    0.26560 -0.6696  0.4390</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -3.1904    0.93417 -3.4152  0.0005</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -2.9546    0.94851 -3.1150  0.0013</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1564</t>
+  </si>
+  <si>
+    <t>R-squared: 97.52 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 85.01 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6813</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.1292</t>
+  </si>
+  <si>
+    <t>lnQ          1.674</t>
+  </si>
+  <si>
+    <t>lnQ2         1.305</t>
+  </si>
+  <si>
+    <t>DECTIME      1.828</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 13.232</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 13.763</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.02 0.02 0.05 0.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 9.736 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6508</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym9 &lt;- loadReg(wwMeHg ~model(9), data = wwMeHg_Spillway, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Spillwaym9</t>
+  </si>
+  <si>
+    <t>(Intercept) -4.30578    1.10468 -3.8978  0.0001</t>
+  </si>
+  <si>
+    <t>lnQ          1.19795    0.08419 14.2298  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.15979    0.03689  4.3322  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      0.03931    0.28943  0.1358  0.8707</t>
+  </si>
+  <si>
+    <t>DECTIME2    -4.20016    2.66039 -1.5788  0.0680</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -2.18311    1.09967 -1.9852  0.0244</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -2.38738    0.97784 -2.4415  0.0070</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.1438</t>
+  </si>
+  <si>
+    <t>R-squared: 97.85 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 88.34 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.0577</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: -0.0824</t>
+  </si>
+  <si>
+    <t>lnQ          3.365</t>
+  </si>
+  <si>
+    <t>lnQ2         1.767</t>
+  </si>
+  <si>
+    <t>DECTIME      2.361</t>
+  </si>
+  <si>
+    <t>DECTIME2     4.110</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 19.946</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 15.911</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: 9.927 percent</t>
+  </si>
+  <si>
+    <t>PLR: 1.099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6611</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 23; Period of record: 2016-01-24 to 2017-04-04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,8 +1534,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,6 +1588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1198,6 +1796,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,19 +1847,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1772,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1780,7 +2390,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1794,10 +2404,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="6"/>
       <c r="K1" s="21" t="s">
         <v>20</v>
@@ -1836,24 +2446,24 @@
       <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
       <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
@@ -1868,21 +2478,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="30" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="30"/>
+      <c r="L5" s="36"/>
       <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1948,19 +2558,19 @@
       <c r="B7" s="11">
         <v>0</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="34" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="11" t="s">
@@ -2094,13 +2704,13 @@
       <c r="B10" s="11">
         <v>0</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="11">
@@ -2240,13 +2850,13 @@
       <c r="B13" s="11">
         <v>0</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="11">
@@ -2380,34 +2990,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="30" t="s">
+      <c r="B18" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -2457,7 +3069,7 @@
       <c r="A20" s="27">
         <v>1</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="6">
         <v>0</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2475,13 +3087,21 @@
       <c r="G20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="I20" s="35">
+        <v>92.58</v>
+      </c>
+      <c r="J20" s="35">
+        <v>0.19</v>
+      </c>
+      <c r="K20" s="35">
+        <v>-11.01</v>
+      </c>
+      <c r="L20" s="35">
+        <v>0.75509999999999999</v>
+      </c>
       <c r="M20" s="27"/>
       <c r="N20" s="8" t="s">
         <v>16</v>
@@ -2497,10 +3117,12 @@
       <c r="A21" s="27">
         <v>2</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="6">
         <v>0</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="25">
+        <v>2.9999999999999997E-4</v>
+      </c>
       <c r="D21" s="10" t="s">
         <v>15</v>
       </c>
@@ -2513,13 +3135,21 @@
       <c r="G21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="I21" s="35">
+        <v>95.75</v>
+      </c>
+      <c r="J21" s="35">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="K21" s="35">
+        <v>6.9180000000000001</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0.74639999999999995</v>
+      </c>
       <c r="M21" s="27"/>
       <c r="N21" s="8" t="s">
         <v>16</v>
@@ -2535,13 +3165,15 @@
       <c r="A22" s="27">
         <v>3</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="6">
         <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="23">
+        <v>5.6500000000000002E-2</v>
+      </c>
       <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
@@ -2551,13 +3183,21 @@
       <c r="G22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="I22" s="35">
+        <v>93.67</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="K22" s="35">
+        <v>-7.4880000000000004</v>
+      </c>
+      <c r="L22" s="35">
+        <v>0.7661</v>
+      </c>
       <c r="M22" s="27"/>
       <c r="N22" s="8" t="s">
         <v>16</v>
@@ -2570,31 +3210,45 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+      <c r="A23" s="11">
         <v>4</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="11">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="H23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
+      <c r="I23" s="11">
+        <v>95.04</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="K23" s="11">
+        <v>-7.2080000000000002</v>
+      </c>
+      <c r="L23" s="35">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>285</v>
+      </c>
       <c r="N23" s="8" t="s">
         <v>16</v>
       </c>
@@ -2609,11 +3263,15 @@
       <c r="A24" s="27">
         <v>5</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="6">
         <v>0</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="35">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0.62480000000000002</v>
+      </c>
       <c r="E24" s="10" t="s">
         <v>15</v>
       </c>
@@ -2623,13 +3281,21 @@
       <c r="G24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="35">
+        <v>95.79</v>
+      </c>
+      <c r="J24" s="35">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K24" s="35">
+        <v>6.827</v>
+      </c>
+      <c r="L24" s="35">
+        <v>0.74829999999999997</v>
+      </c>
       <c r="M24" s="27"/>
       <c r="N24" s="8" t="s">
         <v>16</v>
@@ -2645,25 +3311,39 @@
       <c r="A25" s="27">
         <v>6</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="35">
+        <v>1E-4</v>
+      </c>
       <c r="D25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="11" t="s">
+      <c r="F25" s="6">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G25" s="35">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="35">
+        <v>97.45</v>
+      </c>
+      <c r="J25" s="35">
+        <v>-2.3400000000000001E-2</v>
+      </c>
+      <c r="K25" s="35">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="L25" s="35">
+        <v>0.71840000000000004</v>
+      </c>
       <c r="M25" s="27"/>
       <c r="N25" s="8" t="s">
         <v>16</v>
@@ -2679,25 +3359,39 @@
       <c r="A26" s="27">
         <v>7</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="6">
         <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="6">
+        <v>0.30940000000000001</v>
+      </c>
       <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="11" t="s">
+      <c r="F26" s="6">
+        <v>1.01E-2</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="35">
+        <v>95.26</v>
+      </c>
+      <c r="J26" s="35">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="K26" s="35">
+        <v>-7.29</v>
+      </c>
+      <c r="L26" s="35">
+        <v>0.85799999999999998</v>
+      </c>
       <c r="M26" s="27"/>
       <c r="N26" s="8" t="s">
         <v>16</v>
@@ -2713,23 +3407,39 @@
       <c r="A27" s="27">
         <v>8</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="35">
+        <v>1E-4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.439</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="11" t="s">
+      <c r="F27" s="6">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="35">
+        <v>97.52</v>
+      </c>
+      <c r="J27" s="35">
+        <v>-0.12920000000000001</v>
+      </c>
+      <c r="K27" s="35">
+        <v>9.7360000000000007</v>
+      </c>
+      <c r="L27" s="35">
+        <v>0.65080000000000005</v>
+      </c>
       <c r="M27" s="27"/>
       <c r="N27" s="8" t="s">
         <v>16</v>
@@ -2745,21 +3455,39 @@
       <c r="A28" s="27">
         <v>9</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="6">
         <v>0</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11" t="s">
+      <c r="C28" s="35">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="E28" s="6">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="I28" s="35">
+        <v>97.85</v>
+      </c>
+      <c r="J28" s="35">
+        <v>-8.2400000000000001E-2</v>
+      </c>
+      <c r="K28" s="35">
+        <v>9.9269999999999996</v>
+      </c>
+      <c r="L28" s="35">
+        <v>0.66110000000000002</v>
+      </c>
       <c r="M28" s="27"/>
       <c r="N28" s="8" t="s">
         <v>16</v>
@@ -2772,34 +3500,34 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="30" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="30"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -3164,34 +3892,34 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="30" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="30"/>
+      <c r="L44" s="36"/>
     </row>
     <row r="45" spans="1:27" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -3561,34 +4289,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="30" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="30"/>
+      <c r="L58" s="36"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -3924,6 +4652,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3938,7 +4667,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3958,222 +4687,222 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="31" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="30"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="30"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="30"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="30"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="30"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="32" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="32" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="30"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="32" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="32" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="32" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="30"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="30"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="32" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="32" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="30"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="31" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4193,247 +4922,247 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="30"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="30"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="30"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
+      <c r="A70" s="30"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="32" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+      <c r="A72" s="30"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="32" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="32" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="32" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
+      <c r="A78" s="30"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="32" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="32" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="32" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="32" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="32" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="41"/>
+      <c r="A88" s="30"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="30"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41"/>
+      <c r="A101" s="30"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="43" t="s">
+      <c r="A104" s="32" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="43" t="s">
+      <c r="A106" s="32" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
+      <c r="A107" s="30"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="42" t="s">
+      <c r="A108" s="31" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4453,247 +5182,247 @@
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="31" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="43" t="s">
+      <c r="A113" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41"/>
+      <c r="A114" s="30"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41"/>
+      <c r="A117" s="30"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="43" t="s">
+      <c r="A119" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="43" t="s">
+      <c r="A120" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
+      <c r="A121" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="43" t="s">
+      <c r="A122" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
+      <c r="A123" s="30"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="41"/>
+      <c r="A126" s="30"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="43" t="s">
+      <c r="A127" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
+      <c r="A128" s="30"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="43" t="s">
+      <c r="A129" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="32" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="32" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="43" t="s">
+      <c r="A133" s="32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="41"/>
+      <c r="A134" s="30"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="43" t="s">
+      <c r="A136" s="32" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="32" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="43" t="s">
+      <c r="A138" s="32" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="43" t="s">
+      <c r="A139" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="32" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43" t="s">
+      <c r="A142" s="32" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="43" t="s">
+      <c r="A143" s="32" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="41"/>
+      <c r="A144" s="30"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="43" t="s">
+      <c r="A145" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="43" t="s">
+      <c r="A146" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="43" t="s">
+      <c r="A147" s="32" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="32" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="41"/>
+      <c r="A149" s="30"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="43" t="s">
+      <c r="A154" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="43" t="s">
+      <c r="A155" s="32" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="43" t="s">
+      <c r="A156" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="41"/>
+      <c r="A157" s="30"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="43" t="s">
+      <c r="A159" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="43" t="s">
+      <c r="A160" s="32" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="32" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="43" t="s">
+      <c r="A162" s="32" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="41"/>
+      <c r="A163" s="30"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="42" t="s">
+      <c r="A164" s="31" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4713,257 +5442,257 @@
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="42" t="s">
+      <c r="A168" s="31" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="43" t="s">
+      <c r="A169" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
+      <c r="A170" s="30"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="43" t="s">
+      <c r="A171" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="41"/>
+      <c r="A173" s="30"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="43" t="s">
+      <c r="A174" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="43" t="s">
+      <c r="A175" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="43" t="s">
+      <c r="A178" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
+      <c r="A179" s="30"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="43" t="s">
+      <c r="A180" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="41"/>
+      <c r="A182" s="30"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="43" t="s">
+      <c r="A183" s="32" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="41"/>
+      <c r="A184" s="30"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="43" t="s">
+      <c r="A185" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="43" t="s">
+      <c r="A186" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="43" t="s">
+      <c r="A187" s="32" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="43" t="s">
+      <c r="A189" s="32" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="43" t="s">
+      <c r="A190" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
+      <c r="A191" s="30"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="43" t="s">
+      <c r="A192" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="43" t="s">
+      <c r="A193" s="32" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="43" t="s">
+      <c r="A194" s="32" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="43" t="s">
+      <c r="A195" s="32" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="43" t="s">
+      <c r="A196" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="43" t="s">
+      <c r="A197" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="43" t="s">
+      <c r="A198" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="43" t="s">
+      <c r="A199" s="32" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="43" t="s">
+      <c r="A200" s="32" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="41"/>
+      <c r="A201" s="30"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="43" t="s">
+      <c r="A202" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="43" t="s">
+      <c r="A203" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="43" t="s">
+      <c r="A204" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="43" t="s">
+      <c r="A205" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="43" t="s">
+      <c r="A206" s="32" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="41"/>
+      <c r="A207" s="30"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="43" t="s">
+      <c r="A208" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="43" t="s">
+      <c r="A209" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="43" t="s">
+      <c r="A211" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="43" t="s">
+      <c r="A212" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="43" t="s">
+      <c r="A213" s="32" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="43" t="s">
+      <c r="A214" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="41"/>
+      <c r="A215" s="30"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="43" t="s">
+      <c r="A216" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="43" t="s">
+      <c r="A218" s="32" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="43" t="s">
+      <c r="A219" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="43" t="s">
+      <c r="A220" s="32" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="41"/>
+      <c r="A221" s="30"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="42" t="s">
+      <c r="A222" s="31" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4983,257 +5712,257 @@
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="42" t="s">
+      <c r="A226" s="31" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="43" t="s">
+      <c r="A227" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="41"/>
+      <c r="A228" s="30"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="43" t="s">
+      <c r="A229" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="43" t="s">
+      <c r="A230" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="41"/>
+      <c r="A231" s="30"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="43" t="s">
+      <c r="A232" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="43" t="s">
+      <c r="A233" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="43" t="s">
+      <c r="A234" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="43" t="s">
+      <c r="A235" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="43" t="s">
+      <c r="A236" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="41"/>
+      <c r="A237" s="30"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="43" t="s">
+      <c r="A238" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="43" t="s">
+      <c r="A239" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="41"/>
+      <c r="A240" s="30"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="43" t="s">
+      <c r="A241" s="32" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="41"/>
+      <c r="A242" s="30"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="43" t="s">
+      <c r="A243" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="43" t="s">
+      <c r="A244" s="32" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="43" t="s">
+      <c r="A245" s="32" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="43" t="s">
+      <c r="A246" s="32" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="43" t="s">
+      <c r="A247" s="32" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="43" t="s">
+      <c r="A248" s="32" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="41"/>
+      <c r="A249" s="30"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="43" t="s">
+      <c r="A250" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="43" t="s">
+      <c r="A251" s="32" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="43" t="s">
+      <c r="A252" s="32" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="43" t="s">
+      <c r="A253" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="43" t="s">
+      <c r="A254" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="43" t="s">
+      <c r="A255" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="43" t="s">
+      <c r="A256" s="32" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="43" t="s">
+      <c r="A257" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="43" t="s">
+      <c r="A258" s="32" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="41"/>
+      <c r="A259" s="30"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="43" t="s">
+      <c r="A260" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="43" t="s">
+      <c r="A261" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="43" t="s">
+      <c r="A262" s="32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="43" t="s">
+      <c r="A263" s="32" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="43" t="s">
+      <c r="A264" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="41"/>
+      <c r="A265" s="30"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="43" t="s">
+      <c r="A266" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="43" t="s">
+      <c r="A267" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="43" t="s">
+      <c r="A268" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="43" t="s">
+      <c r="A269" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="43" t="s">
+      <c r="A270" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="43" t="s">
+      <c r="A271" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="43" t="s">
+      <c r="A272" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="41"/>
+      <c r="A273" s="30"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="43" t="s">
+      <c r="A274" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="43" t="s">
+      <c r="A275" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="43" t="s">
+      <c r="A276" s="32" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="43" t="s">
+      <c r="A277" s="32" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="43" t="s">
+      <c r="A278" s="32" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="41"/>
+      <c r="A279" s="30"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="42" t="s">
+      <c r="A280" s="31" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5253,267 +5982,267 @@
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="42" t="s">
+      <c r="A284" s="31" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="43" t="s">
+      <c r="A285" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="41"/>
+      <c r="A286" s="30"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="43" t="s">
+      <c r="A287" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="43" t="s">
+      <c r="A288" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="41"/>
+      <c r="A289" s="30"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="43" t="s">
+      <c r="A290" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="43" t="s">
+      <c r="A291" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="43" t="s">
+      <c r="A292" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="43" t="s">
+      <c r="A293" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="43" t="s">
+      <c r="A294" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="41"/>
+      <c r="A295" s="30"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="43" t="s">
+      <c r="A296" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="43" t="s">
+      <c r="A297" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="41"/>
+      <c r="A298" s="30"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="43" t="s">
+      <c r="A299" s="32" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="41"/>
+      <c r="A300" s="30"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="43" t="s">
+      <c r="A301" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="43" t="s">
+      <c r="A302" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="43" t="s">
+      <c r="A303" s="32" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="43" t="s">
+      <c r="A304" s="32" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="43" t="s">
+      <c r="A305" s="32" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="43" t="s">
+      <c r="A306" s="32" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="43" t="s">
+      <c r="A307" s="32" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="41"/>
+      <c r="A308" s="30"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="43" t="s">
+      <c r="A309" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="43" t="s">
+      <c r="A310" s="32" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="43" t="s">
+      <c r="A311" s="32" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="43" t="s">
+      <c r="A312" s="32" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="43" t="s">
+      <c r="A313" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="43" t="s">
+      <c r="A314" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="43" t="s">
+      <c r="A315" s="32" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="43" t="s">
+      <c r="A316" s="32" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="43" t="s">
+      <c r="A317" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="41"/>
+      <c r="A318" s="30"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="43" t="s">
+      <c r="A319" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="43" t="s">
+      <c r="A320" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="43" t="s">
+      <c r="A321" s="32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="43" t="s">
+      <c r="A322" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="43" t="s">
+      <c r="A323" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="43" t="s">
+      <c r="A324" s="32" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="41"/>
+      <c r="A325" s="30"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="43" t="s">
+      <c r="A326" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="43" t="s">
+      <c r="A327" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="43" t="s">
+      <c r="A328" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="43" t="s">
+      <c r="A329" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="43" t="s">
+      <c r="A330" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="43" t="s">
+      <c r="A331" s="32" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="43" t="s">
+      <c r="A332" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="41"/>
+      <c r="A333" s="30"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="43" t="s">
+      <c r="A334" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="43" t="s">
+      <c r="A335" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="43" t="s">
+      <c r="A336" s="32" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="43" t="s">
+      <c r="A337" s="32" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="43" t="s">
+      <c r="A338" s="32" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="41"/>
+      <c r="A339" s="30"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="42" t="s">
+      <c r="A340" s="31" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5533,267 +6262,267 @@
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="42" t="s">
+      <c r="A344" s="31" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="43" t="s">
+      <c r="A345" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="41"/>
+      <c r="A346" s="30"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="43" t="s">
+      <c r="A347" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="43" t="s">
+      <c r="A348" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="41"/>
+      <c r="A349" s="30"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="43" t="s">
+      <c r="A350" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="43" t="s">
+      <c r="A351" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="43" t="s">
+      <c r="A352" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="43" t="s">
+      <c r="A353" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="43" t="s">
+      <c r="A354" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="41"/>
+      <c r="A355" s="30"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="43" t="s">
+      <c r="A356" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="43" t="s">
+      <c r="A357" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="41"/>
+      <c r="A358" s="30"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="43" t="s">
+      <c r="A359" s="32" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="41"/>
+      <c r="A360" s="30"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="43" t="s">
+      <c r="A361" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="43" t="s">
+      <c r="A362" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="43" t="s">
+      <c r="A363" s="32" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="43" t="s">
+      <c r="A364" s="32" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="43" t="s">
+      <c r="A365" s="32" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="43" t="s">
+      <c r="A366" s="32" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="43" t="s">
+      <c r="A367" s="32" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="41"/>
+      <c r="A368" s="30"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="43" t="s">
+      <c r="A369" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="43" t="s">
+      <c r="A370" s="32" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="43" t="s">
+      <c r="A371" s="32" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="43" t="s">
+      <c r="A372" s="32" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="43" t="s">
+      <c r="A373" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="43" t="s">
+      <c r="A374" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="43" t="s">
+      <c r="A375" s="32" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="43" t="s">
+      <c r="A376" s="32" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="43" t="s">
+      <c r="A377" s="32" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="41"/>
+      <c r="A378" s="30"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="43" t="s">
+      <c r="A379" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="43" t="s">
+      <c r="A380" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="43" t="s">
+      <c r="A381" s="32" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="43" t="s">
+      <c r="A382" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="43" t="s">
+      <c r="A383" s="32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="43" t="s">
+      <c r="A384" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="41"/>
+      <c r="A385" s="30"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="43" t="s">
+      <c r="A386" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="43" t="s">
+      <c r="A387" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="43" t="s">
+      <c r="A388" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="43" t="s">
+      <c r="A389" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="43" t="s">
+      <c r="A390" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="43" t="s">
+      <c r="A391" s="32" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="43" t="s">
+      <c r="A392" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="41"/>
+      <c r="A393" s="30"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="43" t="s">
+      <c r="A394" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="43" t="s">
+      <c r="A395" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="43" t="s">
+      <c r="A396" s="32" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="43" t="s">
+      <c r="A397" s="32" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="43" t="s">
+      <c r="A398" s="32" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="41"/>
+      <c r="A399" s="30"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="42" t="s">
+      <c r="A400" s="31" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5813,277 +6542,277 @@
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="42" t="s">
+      <c r="A404" s="31" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="43" t="s">
+      <c r="A405" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="41"/>
+      <c r="A406" s="30"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="43" t="s">
+      <c r="A407" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="43" t="s">
+      <c r="A408" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="41"/>
+      <c r="A409" s="30"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="43" t="s">
+      <c r="A410" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="43" t="s">
+      <c r="A411" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="43" t="s">
+      <c r="A412" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="43" t="s">
+      <c r="A413" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="43" t="s">
+      <c r="A414" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="41"/>
+      <c r="A415" s="30"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="43" t="s">
+      <c r="A416" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="43" t="s">
+      <c r="A417" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="41"/>
+      <c r="A418" s="30"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="43" t="s">
+      <c r="A419" s="32" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="41"/>
+      <c r="A420" s="30"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="43" t="s">
+      <c r="A421" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="43" t="s">
+      <c r="A422" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="43" t="s">
+      <c r="A423" s="32" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="43" t="s">
+      <c r="A424" s="32" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="43" t="s">
+      <c r="A425" s="32" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="43" t="s">
+      <c r="A426" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="43" t="s">
+      <c r="A427" s="32" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="43" t="s">
+      <c r="A428" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="41"/>
+      <c r="A429" s="30"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="43" t="s">
+      <c r="A430" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="43" t="s">
+      <c r="A431" s="32" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="43" t="s">
+      <c r="A432" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="43" t="s">
+      <c r="A433" s="32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="43" t="s">
+      <c r="A434" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="43" t="s">
+      <c r="A435" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="43" t="s">
+      <c r="A436" s="32" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="43" t="s">
+      <c r="A437" s="32" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="43" t="s">
+      <c r="A438" s="32" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="41"/>
+      <c r="A439" s="30"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="43" t="s">
+      <c r="A440" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="43" t="s">
+      <c r="A441" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="43" t="s">
+      <c r="A442" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="43" t="s">
+      <c r="A443" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="43" t="s">
+      <c r="A444" s="32" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="43" t="s">
+      <c r="A445" s="32" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="43" t="s">
+      <c r="A446" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="41"/>
+      <c r="A447" s="30"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="43" t="s">
+      <c r="A448" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="43" t="s">
+      <c r="A449" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="43" t="s">
+      <c r="A450" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="43" t="s">
+      <c r="A451" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="43" t="s">
+      <c r="A452" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="43" t="s">
+      <c r="A453" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="43" t="s">
+      <c r="A454" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="41"/>
+      <c r="A455" s="30"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="43" t="s">
+      <c r="A456" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="43" t="s">
+      <c r="A457" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="43" t="s">
+      <c r="A458" s="32" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="43" t="s">
+      <c r="A459" s="32" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="43" t="s">
+      <c r="A460" s="32" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="41"/>
+      <c r="A461" s="30"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="42" t="s">
+      <c r="A462" s="31" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6103,279 +6832,279 @@
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="42" t="s">
+      <c r="A466" s="31" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="43" t="s">
+      <c r="A467" s="32" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="41"/>
+      <c r="A468" s="30"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="43" t="s">
+      <c r="A469" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="43" t="s">
+      <c r="A470" s="32" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="41"/>
+      <c r="A471" s="30"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="43" t="s">
+      <c r="A472" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="43" t="s">
+      <c r="A473" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="43" t="s">
+      <c r="A474" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="43" t="s">
+      <c r="A475" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="43" t="s">
+      <c r="A476" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="41"/>
+      <c r="A477" s="30"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="43" t="s">
+      <c r="A478" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="43" t="s">
+      <c r="A479" s="32" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="41"/>
+      <c r="A480" s="30"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="43" t="s">
+      <c r="A481" s="32" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="41"/>
+      <c r="A482" s="30"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="43" t="s">
+      <c r="A483" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="43" t="s">
+      <c r="A484" s="32" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="43" t="s">
+      <c r="A485" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="43" t="s">
+      <c r="A486" s="32" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="43" t="s">
+      <c r="A487" s="32" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="43" t="s">
+      <c r="A488" s="32" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="43" t="s">
+      <c r="A489" s="32" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="43" t="s">
+      <c r="A490" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="43" t="s">
+      <c r="A491" s="32" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="41"/>
+      <c r="A492" s="30"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="43" t="s">
+      <c r="A493" s="32" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="43" t="s">
+      <c r="A494" s="32" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="43" t="s">
+      <c r="A495" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="43" t="s">
+      <c r="A496" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="43" t="s">
+      <c r="A497" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="43" t="s">
+      <c r="A498" s="32" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="43" t="s">
+      <c r="A499" s="32" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="43" t="s">
+      <c r="A500" s="32" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="43" t="s">
+      <c r="A501" s="32" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="41"/>
+      <c r="A502" s="30"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="43" t="s">
+      <c r="A503" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="43" t="s">
+      <c r="A504" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="43" t="s">
+      <c r="A505" s="32" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="43" t="s">
+      <c r="A506" s="32" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="43" t="s">
+      <c r="A507" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="43" t="s">
+      <c r="A508" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="43" t="s">
+      <c r="A509" s="32" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="43" t="s">
+      <c r="A510" s="32" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="41"/>
+      <c r="A511" s="30"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="43" t="s">
+      <c r="A512" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="43" t="s">
+      <c r="A513" s="32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="43" t="s">
+      <c r="A514" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="43" t="s">
+      <c r="A515" s="32" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="43" t="s">
+      <c r="A516" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="43" t="s">
+      <c r="A517" s="32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="43" t="s">
+      <c r="A518" s="32" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="41"/>
+      <c r="A519" s="30"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="43" t="s">
+      <c r="A520" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="43" t="s">
+      <c r="A521" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="43" t="s">
+      <c r="A522" s="32" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="43" t="s">
+      <c r="A523" s="32" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="44" t="s">
+      <c r="A524" s="33" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6399,118 +7128,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1DE6A6-09B0-4386-8D01-5CB04D0F065F}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:A529"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:H30"/>
+      <selection activeCell="F35" sqref="F35:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -6519,1477 +7309,2289 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="13"/>
+      <c r="A525" s="16"/>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="15"/>
+      <c r="A526" s="16"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="16"/>
+      <c r="A527" s="17"/>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="17"/>
+      <c r="A528" s="12"/>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC5218F5-9F70-4B85-ADFD-4FC37922C1D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{641363C0-9BF4-4299-93B2-C1750A8DDA2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,12 +55,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{5243A923-E57B-4408-A124-57BA80B91841}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rose, Shanna Lynn:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There were 2 censored values for this parameter, 27 uncensored.
+Used 0.05 ng/L (one-half of the MDL) in calculations for the constituent censored data in the text file.
+-12/3/18</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="642">
   <si>
     <t>Model #</t>
   </si>
@@ -419,33 +445,6 @@
     <t>Outlet wwMeHg (Using Combined Outlet Inst.Flow for models only)</t>
   </si>
   <si>
-    <t>In loadReg(wwMeHg ~ model(1), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(2), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(3), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(4), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(5), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(6), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(7), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(8), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
-    <t>In loadReg(wwMeHg ~ model(9), data = wwMeHg_Outlet, flow = "Flow", dates = "Dates",  :</t>
-  </si>
-  <si>
     <t>Combined Outflow wwMeHg</t>
   </si>
   <si>
@@ -1461,13 +1460,565 @@
   </si>
   <si>
     <t>Number of Uncensored Observations: 23; Period of record: 2016-01-24 to 2017-04-04</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm1 &lt;- loadReg(wwMeHg ~model(1), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(1), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 29</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 5.4949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Period of record: 2016-01-20 to 2017-04-26</t>
+  </si>
+  <si>
+    <t>(Intercept)   -8.334    0.15803  -52.74       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.104    0.06396   17.27       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.5251</t>
+  </si>
+  <si>
+    <t>R-squared: 91.69 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 72.16 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.5784</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.3124</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.03 0.03</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0 0.00 0.04 0.05 0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -30.81 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.6919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.6334</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm2 &lt;- loadReg(wwMeHg ~model(2), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(2), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm2</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.60735    0.16663 -51.655  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.10422    0.05628  19.620  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04477    0.01503   2.978  0.0035</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4066</t>
+  </si>
+  <si>
+    <t>R-squared: 93.81 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 80.67 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.8054</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2031</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.03 0.04 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -11.35 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8124</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm3 &lt;- loadReg(wwMeHg ~model(3), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(3), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm3</t>
+  </si>
+  <si>
+    <t>(Intercept)  -8.2832    0.15604  -53.08  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.0866    0.06283   17.29  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.4659    0.27903    1.67  0.0857</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4925</t>
+  </si>
+  <si>
+    <t>R-squared: 92.5 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 75.11 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.9609</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.194</t>
+  </si>
+  <si>
+    <t>lnQ     1.029</t>
+  </si>
+  <si>
+    <t>DECTIME 1.029</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.03 0.03 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -23.21 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.7679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.7128</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm4 &lt;- loadReg(wwMeHg ~model(4), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(4), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.4763    0.69965 -10.6858  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1780    0.07351  16.0235  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -1.1010    0.64977  -1.6944  0.0758</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.5054    0.63716  -0.7933  0.3958</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4852</t>
+  </si>
+  <si>
+    <t>R-squared: 92.89 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 76.68 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6483</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1573</t>
+  </si>
+  <si>
+    <t>lnQ         1.430</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.004</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -21.26 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.7874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8219</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm5 &lt;- loadReg(wwMeHg ~model(5), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(5), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm5</t>
+  </si>
+  <si>
+    <t>(Intercept) -8.56409    0.18606 -46.0286  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.09819    0.05807  18.9100  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04053    0.01705   2.3771  0.0151</t>
+  </si>
+  <si>
+    <t>DECTIME      0.15937    0.28753   0.5543  0.5517</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4177</t>
+  </si>
+  <si>
+    <t>R-squared: 93.88 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 81.02 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.9848</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1799</t>
+  </si>
+  <si>
+    <t>lnQ     1.036</t>
+  </si>
+  <si>
+    <t>lnQ2    1.252</t>
+  </si>
+  <si>
+    <t>DECTIME 1.288</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -9.78 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8189</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm6 &lt;- loadReg(wwMeHg ~model(6), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(6), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.83655    0.65800 -11.9097  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.15708    0.06788  17.0451  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.03884    0.01612   2.4092  0.0122</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.82358    0.60613  -1.3587  0.1426</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.53132    0.58365  -0.9103  0.3211</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.407</t>
+  </si>
+  <si>
+    <t>R-squared: 94.28 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 82.96 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6238</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1945</t>
+  </si>
+  <si>
+    <t>lnQ         1.453</t>
+  </si>
+  <si>
+    <t>lnQ2        1.149</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.153</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.420</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.03 0.04 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.355 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8997</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm7 &lt;- loadReg(wwMeHg ~model(7), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(7), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.8342    0.88375 -8.8648  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1440    0.08974 12.7482  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME       0.2531    0.37452  0.6757  0.4598</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.7075    0.87785 -0.8060  0.3788</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.1945    0.79163 -0.2458  0.7872</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.496</t>
+  </si>
+  <si>
+    <t>R-squared: 93.03 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 77.23 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.6417</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.1216</t>
+  </si>
+  <si>
+    <t>lnQ         2.084</t>
+  </si>
+  <si>
+    <t>DECTIME     1.841</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.149</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.163</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -18.84 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.8116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8241</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm8 &lt;- loadReg(wwMeHg ~model(8), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(8), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm8</t>
+  </si>
+  <si>
+    <t>(Intercept)  -7.6578    0.81887 -9.3517  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.1751    0.08390 14.0070  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2          0.0420    0.01841  2.2814  0.0150</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.1471    0.38746 -0.3797  0.6703</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -1.0297    0.82199 -1.2527  0.1665</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.7142    0.76494 -0.9336  0.2990</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.422</t>
+  </si>
+  <si>
+    <t>R-squared: 94.31 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.14 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.487</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2238</t>
+  </si>
+  <si>
+    <t>lnQ         2.141</t>
+  </si>
+  <si>
+    <t>lnQ2        1.445</t>
+  </si>
+  <si>
+    <t>DECTIME     2.315</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 7.366</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.665</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -7.732 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9097</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm9 &lt;- loadReg(wwMeHg ~model(9), data = wwMeHg_Outlet, flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>In loadReg(wwMeHg ~ model(9), data = wwMeHg_Outlet, flow = "Flow",  :</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Outletm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -7.66715    0.83803 -9.1490  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.18481    0.09966 11.8887  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.04414    0.02190  2.0154  0.0266</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.19442    0.46740 -0.4160  0.6336</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.37104    1.94991  0.1903  0.8271</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.13483    1.00519 -1.1290  0.2013</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.78399    0.86334 -0.9081  0.3016</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.4405</t>
+  </si>
+  <si>
+    <t>R-squared: 94.32 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.19 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.442</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.234</t>
+  </si>
+  <si>
+    <t>lnQ          2.894</t>
+  </si>
+  <si>
+    <t>lnQ2         1.958</t>
+  </si>
+  <si>
+    <t>DECTIME      3.228</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.889</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 10.554</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  6.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -6.653 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.9161</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 29; Period of record: 2016-01-20 to 2017-04-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,6 +2097,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1713,7 +2271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1817,24 +2375,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1847,6 +2387,27 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1856,11 +2417,207 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2390,7 +3147,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2404,10 +3161,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="6"/>
       <c r="K1" s="21" t="s">
         <v>20</v>
@@ -2446,24 +3203,24 @@
       <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="44"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
       <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
@@ -2478,21 +3235,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="36" t="s">
+      <c r="B5" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="47"/>
       <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
@@ -2589,7 +3346,7 @@
         <v>0.56630000000000003</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>16</v>
@@ -2735,7 +3492,7 @@
         <v>0.54059999999999997</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>16</v>
@@ -2881,7 +3638,7 @@
         <v>0.5323</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N13" s="8" t="s">
         <v>16</v>
@@ -2990,36 +3747,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="36" t="s">
+      <c r="B18" s="48" t="s">
+        <v>457</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="36"/>
+      <c r="L18" s="47"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -3247,7 +4004,7 @@
         <v>0.83840000000000003</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>16</v>
@@ -3500,34 +4257,36 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="36" t="s">
+      <c r="B31" s="48" t="s">
+        <v>641</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="36"/>
+      <c r="L31" s="47"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -3573,11 +4332,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>1</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="6">
         <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -3595,73 +4354,95 @@
       <c r="G33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
+      <c r="I33" s="36">
+        <v>91.69</v>
+      </c>
+      <c r="J33" s="36">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="K33" s="36">
+        <v>-30.81</v>
+      </c>
+      <c r="L33" s="36">
+        <v>0.63339999999999996</v>
+      </c>
       <c r="M33" s="27"/>
       <c r="N33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P33" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA33" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y33" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>2</v>
       </c>
       <c r="B34" s="11">
         <v>0</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="52">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D34" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="G34" s="34" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
+      <c r="I34" s="11">
+        <v>93.81</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.2031</v>
+      </c>
+      <c r="K34" s="11">
+        <v>-11.35</v>
+      </c>
+      <c r="L34" s="36">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="N34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P34" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA34" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="Y34" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>3</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="6">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="23"/>
+      <c r="D35" s="23">
+        <v>8.5699999999999998E-2</v>
+      </c>
       <c r="E35" s="10" t="s">
         <v>15</v>
       </c>
@@ -3671,29 +4452,37 @@
       <c r="G35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+      <c r="I35" s="36">
+        <v>92.5</v>
+      </c>
+      <c r="J35" s="36">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="K35" s="36">
+        <v>-23.21</v>
+      </c>
+      <c r="L35" s="36">
+        <v>0.71279999999999999</v>
+      </c>
       <c r="M35" s="27"/>
       <c r="N35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y35" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>4</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="6">
         <v>0</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -3705,35 +4494,51 @@
       <c r="E36" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="11" t="s">
+      <c r="F36" s="6">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
+      <c r="I36" s="36">
+        <v>92.89</v>
+      </c>
+      <c r="J36" s="36">
+        <v>0.1573</v>
+      </c>
+      <c r="K36" s="36">
+        <v>-21.26</v>
+      </c>
+      <c r="L36" s="36">
+        <v>0.82189999999999996</v>
+      </c>
       <c r="M36" s="27"/>
       <c r="N36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P36" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA36" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y36" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>5</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="6">
         <v>0</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="C37" s="36">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0.55169999999999997</v>
+      </c>
       <c r="E37" s="10" t="s">
         <v>15</v>
       </c>
@@ -3743,185 +4548,255 @@
       <c r="G37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
+      <c r="I37" s="36">
+        <v>93.88</v>
+      </c>
+      <c r="J37" s="36">
+        <v>0.1799</v>
+      </c>
+      <c r="K37" s="36">
+        <v>-9.7799999999999994</v>
+      </c>
+      <c r="L37" s="36">
+        <v>0.81889999999999996</v>
+      </c>
       <c r="M37" s="27"/>
       <c r="N37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P37" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA37" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y37" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>6</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="6">
         <v>0</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="36">
+        <v>1.2200000000000001E-2</v>
+      </c>
       <c r="D38" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="11" t="s">
+      <c r="F38" s="6">
+        <v>0.1426</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0.3211</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
+      <c r="I38" s="36">
+        <v>94.28</v>
+      </c>
+      <c r="J38" s="36">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="K38" s="36">
+        <v>-7.3550000000000004</v>
+      </c>
+      <c r="L38" s="36">
+        <v>0.89970000000000006</v>
+      </c>
       <c r="M38" s="27"/>
       <c r="N38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA38" s="9" t="s">
+      <c r="P38" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>7</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="6">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6">
+        <v>0.45979999999999999</v>
+      </c>
       <c r="E39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="11" t="s">
+      <c r="F39" s="6">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="G39" s="36">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+      <c r="I39" s="36">
+        <v>93.03</v>
+      </c>
+      <c r="J39" s="36">
+        <v>0.1216</v>
+      </c>
+      <c r="K39" s="36">
+        <v>-18.84</v>
+      </c>
+      <c r="L39" s="36">
+        <v>0.82410000000000005</v>
+      </c>
       <c r="M39" s="27"/>
       <c r="N39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA39" s="9" t="s">
+      <c r="P39" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y39" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>8</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="6">
         <v>0</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="36">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.67030000000000001</v>
+      </c>
       <c r="E40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="11" t="s">
+      <c r="F40" s="6">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
+      <c r="I40" s="36">
+        <v>94.31</v>
+      </c>
+      <c r="J40" s="36">
+        <v>0.2238</v>
+      </c>
+      <c r="K40" s="36">
+        <v>-7.7320000000000002</v>
+      </c>
+      <c r="L40" s="36">
+        <v>0.90969999999999995</v>
+      </c>
       <c r="M40" s="27"/>
       <c r="N40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P40" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA40" s="9" t="s">
+      <c r="P40" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y40" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>9</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="6">
         <v>0</v>
       </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="11" t="s">
+      <c r="C41" s="36">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="F41" s="51">
+        <v>0.20130000000000001</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
+      <c r="I41" s="36">
+        <v>94.32</v>
+      </c>
+      <c r="J41" s="36">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K41" s="36">
+        <v>-6.6529999999999996</v>
+      </c>
+      <c r="L41" s="36">
+        <v>0.91610000000000003</v>
+      </c>
       <c r="M41" s="27"/>
       <c r="N41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA41" s="9" t="s">
+      <c r="P41" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y41" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B43" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="43"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="36" t="s">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="36"/>
-    </row>
-    <row r="45" spans="1:27" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L44" s="47"/>
+    </row>
+    <row r="45" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
@@ -3965,7 +4840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>1</v>
       </c>
@@ -3999,13 +4874,13 @@
         <v>16</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>2</v>
       </c>
@@ -4037,13 +4912,13 @@
         <v>16</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>3</v>
       </c>
@@ -4075,7 +4950,7 @@
         <v>16</v>
       </c>
       <c r="P48" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>17</v>
@@ -4111,7 +4986,7 @@
         <v>16</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>17</v>
@@ -4147,7 +5022,7 @@
         <v>16</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>17</v>
@@ -4181,7 +5056,7 @@
         <v>16</v>
       </c>
       <c r="P51" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y51" s="9" t="s">
         <v>17</v>
@@ -4215,7 +5090,7 @@
         <v>16</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>17</v>
@@ -4247,7 +5122,7 @@
         <v>16</v>
       </c>
       <c r="P53" s="8" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>17</v>
@@ -4277,7 +5152,7 @@
         <v>16</v>
       </c>
       <c r="P54" s="8" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>17</v>
@@ -4289,34 +5164,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
+      <c r="B57" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="36" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="36"/>
+      <c r="L58" s="47"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -4556,12 +5431,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B18:J18"/>
@@ -4574,78 +5443,89 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="K44:L44"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="L60:L68 L57 L93:L1048576">
-    <cfRule type="cellIs" dxfId="17" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55 K60:K1048576 K57 K29">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61 D62 C64:C65 D64 C67:C68 D66:D68 E68 F63:G63 F65:G68">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L54 L33:L41 L20:L28">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:K54 K33:K41 K20:K28">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47 D48 C50:C51 D50 C53:C54 D52:D54 E54 F49:G49 F51:G54 C34 D35 C37:C38 D37 C40:C41 D39:D41 E41 F36:G36 F38:G41 C21 D22 C24:C25 D24 C27:C28 D26:D28 E28 F23:G23 F25:G28">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+  <conditionalFormatting sqref="C47 D48 C50:C51 D50 C53:C54 D52:D54 E54 F49:G49 F51:G54 C34 D35 C37:C38 D37 C40:C41 D39:D41 E41 F36:G36 F38:G40 C21 D22 C24:C25 D24 C27:C28 D26:D28 E28 F23:G23 F25:G28 G41">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L15">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 D9 C11:C12 D11 C14:C15 D13:D15 E15 F10:G10 F12:G15">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>0.1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
@@ -4668,7 +5548,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -4688,7 +5568,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -4706,7 +5586,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -4755,7 +5635,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4773,12 +5653,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -4791,17 +5671,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -4816,17 +5696,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -4885,17 +5765,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -4903,7 +5783,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -4923,7 +5803,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -4941,7 +5821,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -4990,7 +5870,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -5008,17 +5888,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -5031,17 +5911,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -5056,17 +5936,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -5145,17 +6025,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -5163,7 +6043,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -5183,7 +6063,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -5201,7 +6081,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5250,7 +6130,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -5268,17 +6148,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -5291,17 +6171,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -5316,17 +6196,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -5405,7 +6285,7 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -5415,7 +6295,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -5423,7 +6303,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="31" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -5443,7 +6323,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="31" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -5461,7 +6341,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -5510,7 +6390,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -5528,22 +6408,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -5556,17 +6436,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -5581,17 +6461,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -5675,17 +6555,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -5693,7 +6573,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="31" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -5713,7 +6593,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="31" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -5731,7 +6611,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -5780,7 +6660,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -5798,22 +6678,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="32" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -5826,17 +6706,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="32" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -5851,17 +6731,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="32" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -5945,17 +6825,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="32" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="32" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="32" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -5963,7 +6843,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="31" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -5983,7 +6863,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="31" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -6001,7 +6881,7 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -6050,7 +6930,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="32" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -6068,27 +6948,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="32" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="32" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="32" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -6101,17 +6981,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="32" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="32" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -6126,17 +7006,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="32" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="32" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="32" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -6225,17 +7105,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="32" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="32" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="32" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -6243,7 +7123,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="31" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -6263,7 +7143,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="31" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -6281,7 +7161,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -6330,7 +7210,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="32" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -6348,27 +7228,27 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="32" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="32" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="32" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="32" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="32" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -6381,17 +7261,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="32" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="32" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="32" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -6406,17 +7286,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="32" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="32" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="32" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -6482,7 +7362,7 @@
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="32" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
@@ -6505,17 +7385,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="32" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="32" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="32" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -6523,7 +7403,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="31" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -6543,7 +7423,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="31" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -6561,7 +7441,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -6610,7 +7490,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="32" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -6628,32 +7508,32 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="32" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="32" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="32" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="32" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="32" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="32" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -6666,17 +7546,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="32" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="32" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="32" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -6691,7 +7571,7 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="32" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
@@ -6701,7 +7581,7 @@
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="32" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -6795,17 +7675,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="32" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="32" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="32" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -6813,7 +7693,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="31" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -6833,7 +7713,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="31" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -6851,7 +7731,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="32" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -6900,7 +7780,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="32" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -6918,37 +7798,37 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="32" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="32" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="32" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="32" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="32" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="32" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="32" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -6961,17 +7841,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="32" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="32" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -6986,17 +7866,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="32" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="32" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="32" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -7095,17 +7975,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="32" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="33" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -7141,7 +8021,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7161,7 +8041,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -7179,7 +8059,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -7187,27 +8067,27 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -7228,7 +8108,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -7246,12 +8126,12 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -7264,17 +8144,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -7289,17 +8169,17 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -7330,17 +8210,17 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -7358,17 +8238,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -7376,7 +8256,7 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
@@ -7396,7 +8276,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -7414,7 +8294,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -7422,27 +8302,27 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -7463,7 +8343,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -7481,17 +8361,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -7504,17 +8384,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
@@ -7529,17 +8409,17 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
@@ -7590,17 +8470,17 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -7618,17 +8498,17 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -7636,7 +8516,7 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
@@ -7656,7 +8536,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -7674,7 +8554,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -7682,27 +8562,27 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -7723,7 +8603,7 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
@@ -7741,17 +8621,17 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -7764,17 +8644,17 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="14" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -7789,17 +8669,17 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -7817,12 +8697,12 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -7855,12 +8735,12 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -7878,17 +8758,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -7896,7 +8776,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -7916,7 +8796,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -7934,7 +8814,7 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
@@ -7942,27 +8822,27 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -7983,7 +8863,7 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -8001,22 +8881,22 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -8029,17 +8909,17 @@
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -8054,17 +8934,17 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -8077,22 +8957,22 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -8120,17 +9000,17 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -8148,17 +9028,17 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="14" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="14" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
@@ -8166,7 +9046,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -8186,7 +9066,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -8204,7 +9084,7 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
@@ -8212,27 +9092,27 @@
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -8253,7 +9133,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="14" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -8271,22 +9151,22 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="14" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="14" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="14" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -8299,17 +9179,17 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="14" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="14" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="14" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -8324,17 +9204,17 @@
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="14" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="14" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="14" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
@@ -8352,17 +9232,17 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="14" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="14" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -8390,17 +9270,17 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="14" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -8418,17 +9298,17 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="14" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="14" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="14" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -8436,7 +9316,7 @@
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -8456,7 +9336,7 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
@@ -8474,7 +9354,7 @@
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -8482,27 +9362,27 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
@@ -8523,7 +9403,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="14" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -8541,27 +9421,27 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="14" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="14" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="14" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="14" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="14" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -8574,17 +9454,17 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="14" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="14" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -8599,17 +9479,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="14" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="14" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="14" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -8622,27 +9502,27 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="14" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="14" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="14" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="14" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -8670,17 +9550,17 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -8698,17 +9578,17 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="14" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="14" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="14" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -8716,7 +9596,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="15" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -8736,7 +9616,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="15" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
@@ -8754,7 +9634,7 @@
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
@@ -8762,27 +9642,27 @@
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
@@ -8803,7 +9683,7 @@
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="14" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
@@ -8821,27 +9701,27 @@
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="14" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="14" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
@@ -8854,17 +9734,17 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="14" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="14" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="14" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -8879,17 +9759,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="14" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="14" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="14" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -8902,27 +9782,27 @@
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="14" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="14" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="14" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
@@ -8950,17 +9830,17 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
@@ -8978,17 +9858,17 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="14" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="14" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="14" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
@@ -8996,7 +9876,7 @@
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
@@ -9016,7 +9896,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -9034,7 +9914,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -9042,27 +9922,27 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -9083,7 +9963,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="14" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -9101,32 +9981,32 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="14" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="14" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="14" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="14" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="14" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="14" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -9139,17 +10019,17 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="14" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="14" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="14" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -9164,17 +10044,17 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="14" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="14" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="14" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
@@ -9187,32 +10067,32 @@
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="14" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="14" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="14" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="14" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="14" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -9240,17 +10120,17 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="14" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -9268,17 +10148,17 @@
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="14" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="14" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="14" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
@@ -9286,7 +10166,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="15" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -9306,7 +10186,7 @@
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="15" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -9324,7 +10204,7 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="14" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
@@ -9332,27 +10212,27 @@
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="14" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="14" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="14" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="14" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="14" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -9373,7 +10253,7 @@
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -9391,37 +10271,37 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -9434,17 +10314,17 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="14" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="14" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -9459,17 +10339,17 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="14" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="14" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="14" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -9482,37 +10362,37 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="14" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="14" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="14" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="14" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="14" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="14" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="14" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
@@ -9540,17 +10420,17 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="14" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="14" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="14" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
@@ -9568,17 +10448,17 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="14" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="14" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="14" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
@@ -9604,118 +10484,179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E8CF0D-1596-4A2F-A50C-9BD320018867}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:A528"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -9724,1465 +10665,2277 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>541</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="16"/>

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{641363C0-9BF4-4299-93B2-C1750A8DDA2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDC45FCF-114D-472A-B00E-F519DA0248BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="990" yWindow="30" windowWidth="9630" windowHeight="13440" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,12 +81,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="B44" authorId="0" shapeId="0" xr:uid="{C6717B38-828E-4701-8FB0-3099A8E3DB6B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rose, Shanna Lynn:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There were 5 censored values for this parameter, 29 uncensored.
+Used 0.05 ng/L (one-half of the MDL) in calculations for the constituent censored data in the text file.
+-12/3/18</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="815">
   <si>
     <t>Model #</t>
   </si>
@@ -2012,6 +2038,525 @@
   </si>
   <si>
     <t>Number of Uncensored Observations: 29; Period of record: 2016-01-20 to 2017-04-26</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm1 &lt;- loadReg(wwMeHg ~model(1), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Number of Observations: 34</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Center of Decimal Time: 2016.626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  Center of ln(Q): 7.0699</t>
+  </si>
+  <si>
+    <t>(Intercept)   -6.737     0.1050  -64.19       0</t>
+  </si>
+  <si>
+    <t>lnQ            1.170     0.0631   18.54       0</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3668</t>
+  </si>
+  <si>
+    <t>R-squared: 91.49 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.75 on 1 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.874</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.29</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.02 0.02</t>
+  </si>
+  <si>
+    <t>Obs   0   0   0 0.01 0.02 0.03 0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -4.608 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8075</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm2 &lt;- loadReg(wwMeHg ~model(2), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error  z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.764271    0.16708 -40.4854  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.170044    0.06407  18.2634  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.009802    0.04652   0.2107  0.8254</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3781</t>
+  </si>
+  <si>
+    <t>R-squared: 91.5 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.8 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.8434</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.289</t>
+  </si>
+  <si>
+    <t>Est   0   0   0 0.01 0.02 0.02 0.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.378 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8141</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm3 &lt;- loadReg(wwMeHg ~model(3), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm3</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.73888    0.10645 -63.3043  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.15843    0.07039  16.4579  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      0.09765    0.24725   0.3949  0.6795</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3767</t>
+  </si>
+  <si>
+    <t>R-squared: 91.53 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 83.93 on 2 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.9149</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2746</t>
+  </si>
+  <si>
+    <t>lnQ     1.211</t>
+  </si>
+  <si>
+    <t>DECTIME 1.211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.498 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8121</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm4 &lt;- loadReg(wwMeHg ~model(4), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm4</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.9324    0.64923  -9.138  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2061    0.06957  17.335  0.0000</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -0.7932    0.56280  -1.409  0.1398</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.5742    0.55190  -1.040  0.2723</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3657</t>
+  </si>
+  <si>
+    <t>R-squared: 92.04 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 86.05 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7719</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.263</t>
+  </si>
+  <si>
+    <t>lnQ         1.219</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 3.817</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 3.874</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -1.616 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.868</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm5 &lt;- loadReg(wwMeHg ~model(5), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Estimate Std. Error   z-score p-value</t>
+  </si>
+  <si>
+    <t>(Intercept) -6.749966    0.17471 -38.63418  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.159300    0.07235  16.02395  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2         0.004055    0.05017   0.08082  0.9314</t>
+  </si>
+  <si>
+    <t>DECTIME      0.090337    0.26710   0.33821  0.7191</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3892</t>
+  </si>
+  <si>
+    <t>G-squared: 83.93 on 3 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.9095</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2756</t>
+  </si>
+  <si>
+    <t>lnQ     1.239</t>
+  </si>
+  <si>
+    <t>lnQ2    1.130</t>
+  </si>
+  <si>
+    <t>DECTIME 1.368</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.013 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8142</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm6 &lt;- loadReg(wwMeHg ~model(6), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm6</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.86152    0.69925 -8.3825  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.20705    0.07072 17.0672  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01618    0.05317 -0.3042  0.7420</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -0.84214    0.59374 -1.4184  0.1310</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.57330    0.56045 -1.0229  0.2723</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3771</t>
+  </si>
+  <si>
+    <t>R-squared: 92.07 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 86.16 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.7807</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2528</t>
+  </si>
+  <si>
+    <t>lnQ         1.222</t>
+  </si>
+  <si>
+    <t>lnQ2        1.309</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 4.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -3.24 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8637</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm7 &lt;- loadReg(wwMeHg ~model(7), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm7</t>
+  </si>
+  <si>
+    <t>(Intercept)  -5.5246    0.84594 -6.5307  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ           1.2542    0.09441 13.2839  0.0000</t>
+  </si>
+  <si>
+    <t>DECTIME      -0.2516    0.33109 -0.7598  0.4130</t>
+  </si>
+  <si>
+    <t>sin.DECTIME  -1.1795    0.76147 -1.5490  0.1002</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  -0.8714    0.67971 -1.2820  0.1710</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.371</t>
+  </si>
+  <si>
+    <t>R-squared: 92.2 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 86.72 on 4 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4542</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2869</t>
+  </si>
+  <si>
+    <t>lnQ         2.213</t>
+  </si>
+  <si>
+    <t>DECTIME     2.206</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.888</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.793</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.132 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8782</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm8 &lt;- loadReg(wwMeHg ~model(8), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm8</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.50622    0.86941 -6.3333  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.25260    0.09661 12.9651  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.00815    0.05486 -0.1486  0.8700</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.24086    0.34444 -0.6993  0.4429</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.18776    0.77662 -1.5294  0.0986</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.85834    0.69706 -1.2314  0.1806</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3839</t>
+  </si>
+  <si>
+    <t>G-squared: 86.75 on 5 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.4904</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2816</t>
+  </si>
+  <si>
+    <t>lnQ         2.240</t>
+  </si>
+  <si>
+    <t>lnQ2        1.369</t>
+  </si>
+  <si>
+    <t>DECTIME     2.307</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 6.924</t>
+  </si>
+  <si>
+    <t>cos.DECTIME 5.887</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.898 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8757</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm9 &lt;- loadReg(wwMeHg ~model(9), data = wwMeHg_Combined , flow="Flow", dates = "Dates" ,conc.units="ng/L" , station = "CCSB-Yolo")</t>
+  </si>
+  <si>
+    <t>&gt; wwMeHg_Combinedm9</t>
+  </si>
+  <si>
+    <t>(Intercept) -5.47020    0.88424 -6.1863  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ          1.28866    0.12164 10.5938  0.0000</t>
+  </si>
+  <si>
+    <t>lnQ2        -0.01444    0.05701 -0.2533  0.7763</t>
+  </si>
+  <si>
+    <t>DECTIME     -0.33871    0.40029 -0.8462  0.3455</t>
+  </si>
+  <si>
+    <t>DECTIME2     0.92727    1.85527  0.4998  0.5758</t>
+  </si>
+  <si>
+    <t>sin.DECTIME -1.45043    0.94654 -1.5323  0.0922</t>
+  </si>
+  <si>
+    <t>cos.DECTIME -0.98592    0.75128 -1.3123  0.1471</t>
+  </si>
+  <si>
+    <t>Residual variance: 0.3945</t>
+  </si>
+  <si>
+    <t>R-squared: 92.27 percent</t>
+  </si>
+  <si>
+    <t>G-squared: 87.06 on 6 degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  r = 0.9885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  p-value = 0.591</t>
+  </si>
+  <si>
+    <t>Serial Correlation of Residuals: 0.2808</t>
+  </si>
+  <si>
+    <t>lnQ          3.456</t>
+  </si>
+  <si>
+    <t>lnQ2         1.440</t>
+  </si>
+  <si>
+    <t>DECTIME      3.033</t>
+  </si>
+  <si>
+    <t>DECTIME2     1.943</t>
+  </si>
+  <si>
+    <t>sin.DECTIME 10.009</t>
+  </si>
+  <si>
+    <t>cos.DECTIME  6.656</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bp: -2.085 percent</t>
+  </si>
+  <si>
+    <t>PLR: 0.9791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E: 0.8815</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Number of Uncensored Observations: 34; Period of record: 2016-01-20 to 2017-04-26</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2375,6 +2920,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2387,47 +2971,14 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2435,186 +2986,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3147,7 +3518,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3161,10 +3532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="6"/>
       <c r="K1" s="21" t="s">
         <v>20</v>
@@ -3203,24 +3574,24 @@
       <c r="L2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="38"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="1:35" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="49"/>
       <c r="Z4" s="18" t="s">
         <v>50</v>
       </c>
@@ -3235,21 +3606,21 @@
       <c r="AI4" s="18"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="47"/>
+      <c r="L5" s="40"/>
       <c r="Z5" s="18" t="s">
         <v>51</v>
       </c>
@@ -3747,36 +4118,36 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="47" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="47"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -4257,36 +4628,36 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="49"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="44" t="s">
         <v>641</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="47" t="s">
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L31" s="47"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
@@ -4387,7 +4758,7 @@
       <c r="B34" s="11">
         <v>0</v>
       </c>
-      <c r="C34" s="52">
+      <c r="C34" s="39">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="D34" s="34" t="s">
@@ -4734,7 +5105,7 @@
       <c r="E41" s="6">
         <v>0.82709999999999995</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="38">
         <v>0.20130000000000001</v>
       </c>
       <c r="G41" s="6">
@@ -4767,22 +5138,24 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="43"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="49"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B44" s="44"/>
+      <c r="B44" s="44" t="s">
+        <v>814</v>
+      </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
@@ -4791,10 +5164,10 @@
       <c r="H44" s="45"/>
       <c r="I44" s="45"/>
       <c r="J44" s="46"/>
-      <c r="K44" s="47" t="s">
+      <c r="K44" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="47"/>
+      <c r="L44" s="40"/>
     </row>
     <row r="45" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -4841,35 +5214,45 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="27">
+      <c r="A46" s="11">
         <v>1</v>
       </c>
       <c r="B46" s="11">
         <v>0</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G46" s="34" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
+      <c r="I46" s="11">
+        <v>91.49</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K46" s="11">
+        <v>-4.6079999999999997</v>
+      </c>
+      <c r="L46" s="37">
+        <v>0.8075</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="N46" s="8" t="s">
         <v>16</v>
       </c>
@@ -4884,10 +5267,12 @@
       <c r="A47" s="27">
         <v>2</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="6">
         <v>0</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="25">
+        <v>0.82540000000000002</v>
+      </c>
       <c r="D47" s="10" t="s">
         <v>15</v>
       </c>
@@ -4900,13 +5285,21 @@
       <c r="G47" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
+      <c r="I47" s="37">
+        <v>91.5</v>
+      </c>
+      <c r="J47" s="37">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="K47" s="37">
+        <v>-3.3780000000000001</v>
+      </c>
+      <c r="L47" s="37">
+        <v>0.81410000000000005</v>
+      </c>
       <c r="M47" s="27"/>
       <c r="N47" s="8" t="s">
         <v>16</v>
@@ -4922,13 +5315,15 @@
       <c r="A48" s="27">
         <v>3</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="6">
         <v>0</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="23"/>
+      <c r="D48" s="23">
+        <v>0.67949999999999999</v>
+      </c>
       <c r="E48" s="10" t="s">
         <v>15</v>
       </c>
@@ -4938,13 +5333,21 @@
       <c r="G48" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
+      <c r="I48" s="37">
+        <v>91.53</v>
+      </c>
+      <c r="J48" s="37">
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="K48" s="37">
+        <v>-3.4980000000000002</v>
+      </c>
+      <c r="L48" s="37">
+        <v>0.81210000000000004</v>
+      </c>
       <c r="M48" s="27"/>
       <c r="N48" s="8" t="s">
         <v>16</v>
@@ -4960,7 +5363,7 @@
       <c r="A49" s="27">
         <v>4</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="6">
         <v>0</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -4972,15 +5375,27 @@
       <c r="E49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="11" t="s">
+      <c r="F49" s="6">
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="G49" s="37">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="I49" s="37">
+        <v>92.04</v>
+      </c>
+      <c r="J49" s="37">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="K49" s="37">
+        <v>-1.6160000000000001</v>
+      </c>
+      <c r="L49" s="37">
+        <v>0.86799999999999999</v>
+      </c>
       <c r="M49" s="27"/>
       <c r="N49" s="8" t="s">
         <v>16</v>
@@ -4996,11 +5411,15 @@
       <c r="A50" s="27">
         <v>5</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="6">
         <v>0</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="C50" s="37">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="D50" s="37">
+        <v>0.71909999999999996</v>
+      </c>
       <c r="E50" s="10" t="s">
         <v>15</v>
       </c>
@@ -5010,13 +5429,21 @@
       <c r="G50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
+      <c r="I50" s="37">
+        <v>91.53</v>
+      </c>
+      <c r="J50" s="37">
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="K50" s="37">
+        <v>-3.0129999999999999</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0.81420000000000003</v>
+      </c>
       <c r="M50" s="27"/>
       <c r="N50" s="8" t="s">
         <v>16</v>
@@ -5032,25 +5459,39 @@
       <c r="A51" s="27">
         <v>6</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="6">
         <v>0</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="37">
+        <v>0.74199999999999999</v>
+      </c>
       <c r="D51" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="11" t="s">
+      <c r="F51" s="6">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
+      <c r="I51" s="37">
+        <v>92.07</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="K51" s="37">
+        <v>-3.24</v>
+      </c>
+      <c r="L51" s="37">
+        <v>0.86370000000000002</v>
+      </c>
       <c r="M51" s="27"/>
       <c r="N51" s="8" t="s">
         <v>16</v>
@@ -5066,25 +5507,39 @@
       <c r="A52" s="27">
         <v>7</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="6">
         <v>0</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6">
+        <v>0.41299999999999998</v>
+      </c>
       <c r="E52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="11" t="s">
+      <c r="F52" s="6">
+        <v>0.1002</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
+      <c r="I52" s="37">
+        <v>92.2</v>
+      </c>
+      <c r="J52" s="37">
+        <v>0.28689999999999999</v>
+      </c>
+      <c r="K52" s="37">
+        <v>-2.1320000000000001</v>
+      </c>
+      <c r="L52" s="37">
+        <v>0.87819999999999998</v>
+      </c>
       <c r="M52" s="27"/>
       <c r="N52" s="8" t="s">
         <v>16</v>
@@ -5100,23 +5555,39 @@
       <c r="A53" s="27">
         <v>8</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="6">
         <v>0</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="37">
+        <v>0.87</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.44290000000000002</v>
+      </c>
       <c r="E53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="11" t="s">
+      <c r="F53" s="6">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="I53" s="37">
+        <v>92.2</v>
+      </c>
+      <c r="J53" s="37">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="K53" s="37">
+        <v>-2.8980000000000001</v>
+      </c>
+      <c r="L53" s="37">
+        <v>0.87570000000000003</v>
+      </c>
       <c r="M53" s="27"/>
       <c r="N53" s="8" t="s">
         <v>16</v>
@@ -5132,21 +5603,39 @@
       <c r="A54" s="27">
         <v>9</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="6">
         <v>0</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="11" t="s">
+      <c r="C54" s="37">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="F54" s="6">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.14710000000000001</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+      <c r="I54" s="37">
+        <v>92.27</v>
+      </c>
+      <c r="J54" s="37">
+        <v>0.28079999999999999</v>
+      </c>
+      <c r="K54" s="37">
+        <v>-2.085</v>
+      </c>
+      <c r="L54" s="37">
+        <v>0.88149999999999995</v>
+      </c>
       <c r="M54" s="27"/>
       <c r="N54" s="8" t="s">
         <v>16</v>
@@ -5164,34 +5653,34 @@
       <c r="Y55" s="9"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B58" s="44"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="47" t="s">
+      <c r="B58" s="41"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L58" s="47"/>
+      <c r="L58" s="40"/>
     </row>
     <row r="59" spans="1:25" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
@@ -5431,6 +5920,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B18:J18"/>
@@ -5443,85 +5938,79 @@
     <mergeCell ref="K31:L31"/>
     <mergeCell ref="B43:J43"/>
     <mergeCell ref="K44:L44"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="L60:L68 L57 L93:L1048576">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="43" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="44" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="45" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K55 K60:K1048576 K57 K29">
-    <cfRule type="cellIs" dxfId="33" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="30" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61 D62 C64:C65 D64 C67:C68 D66:D68 E68 F63:G63 F65:G68">
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L54 L33:L41 L20:L28">
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:K54 K33:K41 K20:K28">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47 D48 C50:C51 D50 C53:C54 D52:D54 E54 F49:G49 F51:G54 C34 D35 C37:C38 D37 C40:C41 D39:D41 E41 F36:G36 F38:G40 C21 D22 C24:C25 D24 C27:C28 D26:D28 E28 F23:G23 F25:G28 G41">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:L15">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>0.5</formula>
       <formula>0.8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:K15">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8 D9 C11:C12 D11 C14:C15 D13:D15 E15 F10:G10 F12:G15">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12957,118 +13446,179 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FBE2AD-EC1E-4563-8289-C8C08DD23DD5}">
-  <dimension ref="A1:A528"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:A527"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="R17" sqref="R17:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="15" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="15" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="14" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="14" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="14" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="14" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
+      <c r="A32" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
+      <c r="A33" s="14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -13077,1465 +13627,2277 @@
       <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
+      <c r="A43" s="14" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
+      <c r="A46" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+      <c r="A47" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
+      <c r="A48" s="14" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="14" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="14" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="A52" s="15" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="15" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
+      <c r="A57" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+      <c r="A60" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
+      <c r="A68" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
+      <c r="A69" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
+      <c r="A71" s="14" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="14" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="14" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="14" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="14" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+      <c r="A79" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+      <c r="A80" s="14" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="14" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="14" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="14" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="14" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+      <c r="A87" s="14" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
+      <c r="A95" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
+      <c r="A96" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="14" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
+      <c r="A103" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
+      <c r="A104" s="14" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="14" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="14" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
+      <c r="A108" s="15" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+      <c r="A109" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+      <c r="A110" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+      <c r="A111" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="15" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
+      <c r="A119" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
+      <c r="A120" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
+      <c r="A125" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14"/>
+      <c r="A127" s="14" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="14" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="14" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="14" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14"/>
+      <c r="A135" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="14" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="14" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="14" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="14" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
+      <c r="A143" s="14" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="14" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="14" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="14" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="13"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="14"/>
+      <c r="A160" s="14" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
+      <c r="A161" s="14" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14"/>
+      <c r="A162" s="14" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="15" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="15" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="13"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="14"/>
+      <c r="A171" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="14"/>
+      <c r="A172" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="13"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="14"/>
+      <c r="A174" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="14"/>
+      <c r="A175" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
+      <c r="A176" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="14"/>
+      <c r="A177" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="14"/>
+      <c r="A178" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="13"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
+      <c r="A180" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="13"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="14"/>
+      <c r="A183" s="14" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="13"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
+      <c r="A185" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="14"/>
+      <c r="A186" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="14"/>
+      <c r="A187" s="14" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
+      <c r="A188" s="14" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="14"/>
+      <c r="A189" s="14" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="14"/>
+      <c r="A190" s="14" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="14"/>
+      <c r="A192" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="14" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
+      <c r="A194" s="14" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="14"/>
+      <c r="A195" s="14" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="14"/>
+      <c r="A196" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
+      <c r="A197" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="14"/>
+      <c r="A198" s="14" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="14"/>
+      <c r="A199" s="14" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
+      <c r="A200" s="14" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="13"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="14"/>
+      <c r="A202" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
+      <c r="A203" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="14"/>
+      <c r="A204" s="14" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
+      <c r="A206" s="14" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="14"/>
+      <c r="A208" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
+      <c r="A209" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="14"/>
+      <c r="A210" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="14"/>
+      <c r="A211" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
+      <c r="A212" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="14"/>
+      <c r="A213" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="14"/>
+      <c r="A214" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="14"/>
+      <c r="A216" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="14"/>
+      <c r="A217" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
+      <c r="A218" s="14" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="14"/>
+      <c r="A219" s="14" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="14"/>
+      <c r="A220" s="14" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="13"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="15" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="7"/>
+      <c r="A223" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="7"/>
+      <c r="A224" s="7" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="7"/>
+      <c r="A225" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="15" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
+      <c r="A227" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="14"/>
+      <c r="A229" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
+      <c r="A230" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="14"/>
+      <c r="A232" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="14"/>
+      <c r="A234" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
+      <c r="A236" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="14"/>
+      <c r="A238" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
+      <c r="A239" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="14"/>
+      <c r="A241" s="14" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="14"/>
+      <c r="A243" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="14"/>
+      <c r="A244" s="14" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
+      <c r="A245" s="14" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="14"/>
+      <c r="A246" s="14" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="14"/>
+      <c r="A247" s="14" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
+      <c r="A248" s="14" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="14"/>
+      <c r="A250" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
+      <c r="A251" s="14" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="14"/>
+      <c r="A252" s="14" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="14"/>
+      <c r="A253" s="14" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
+      <c r="A254" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="14"/>
+      <c r="A255" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="14"/>
+      <c r="A256" s="14" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
+      <c r="A257" s="14" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="14"/>
+      <c r="A258" s="14" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
+      <c r="A260" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="14"/>
+      <c r="A261" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="14"/>
+      <c r="A262" s="14" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
+      <c r="A263" s="14" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="14"/>
+      <c r="A264" s="14" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
+      <c r="A266" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="14"/>
+      <c r="A267" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="14"/>
+      <c r="A268" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
+      <c r="A269" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="14"/>
+      <c r="A270" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="14"/>
+      <c r="A271" s="14" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
+      <c r="A272" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="14"/>
+      <c r="A274" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
+      <c r="A275" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="14"/>
+      <c r="A276" s="14" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="14"/>
+      <c r="A277" s="14" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
+      <c r="A278" s="14" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="15" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7"/>
+      <c r="A281" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7"/>
+      <c r="A282" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7"/>
+      <c r="A283" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="15"/>
+      <c r="A284" s="15" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="14"/>
+      <c r="A285" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
+      <c r="A287" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="14"/>
+      <c r="A288" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
+      <c r="A290" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="14"/>
+      <c r="A291" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="14"/>
+      <c r="A292" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
+      <c r="A293" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="14"/>
+      <c r="A294" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
+      <c r="A296" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="14"/>
+      <c r="A297" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
+      <c r="A299" s="14" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="14"/>
+      <c r="A301" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
+      <c r="A302" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="14"/>
+      <c r="A303" s="14" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="14"/>
+      <c r="A304" s="14" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
+      <c r="A305" s="14" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="14"/>
+      <c r="A306" s="14" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="14"/>
+      <c r="A307" s="14" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="14"/>
+      <c r="A309" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="14"/>
+      <c r="A310" s="14" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
+      <c r="A311" s="14" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="14"/>
+      <c r="A312" s="14" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="14"/>
+      <c r="A313" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
+      <c r="A314" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="14"/>
+      <c r="A315" s="14" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="14"/>
+      <c r="A316" s="14" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
+      <c r="A317" s="14" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="14"/>
+      <c r="A319" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
+      <c r="A320" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="14"/>
+      <c r="A321" s="14" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="14"/>
+      <c r="A322" s="14" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
+      <c r="A323" s="14" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="14"/>
+      <c r="A324" s="14" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
+      <c r="A326" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="14"/>
+      <c r="A327" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="14"/>
+      <c r="A328" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
+      <c r="A329" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
+      <c r="A330" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="14"/>
+      <c r="A331" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
+      <c r="A332" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
+      <c r="A334" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
+      <c r="A335" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="14"/>
+      <c r="A336" s="14" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="14"/>
+      <c r="A337" s="14" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
+      <c r="A338" s="14" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="15" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="7"/>
+      <c r="A341" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="7"/>
+      <c r="A342" s="7" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="7"/>
+      <c r="A343" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15"/>
+      <c r="A344" s="15" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="14"/>
+      <c r="A345" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
+      <c r="A347" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="14"/>
+      <c r="A348" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
+      <c r="A350" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="14"/>
+      <c r="A351" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="14"/>
+      <c r="A352" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
+      <c r="A353" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14"/>
+      <c r="A354" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
+      <c r="A356" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="14"/>
+      <c r="A357" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
+      <c r="A359" s="14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="14"/>
+      <c r="A361" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
+      <c r="A362" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="14"/>
+      <c r="A363" s="14" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="14"/>
+      <c r="A364" s="14" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
+      <c r="A365" s="14" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="14"/>
+      <c r="A366" s="14" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="14"/>
+      <c r="A367" s="14" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="14"/>
+      <c r="A369" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="14"/>
+      <c r="A370" s="14" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
+      <c r="A371" s="14" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="14"/>
+      <c r="A372" s="14" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="14"/>
+      <c r="A373" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
+      <c r="A374" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="14"/>
+      <c r="A375" s="14" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="14"/>
+      <c r="A376" s="14" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
+      <c r="A377" s="14" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="14"/>
+      <c r="A379" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
+      <c r="A380" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="14"/>
+      <c r="A381" s="14" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="14"/>
+      <c r="A382" s="14" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
+      <c r="A383" s="14" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="14"/>
+      <c r="A384" s="14" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
+      <c r="A386" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="14"/>
+      <c r="A387" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="14"/>
+      <c r="A388" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
+      <c r="A389" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="14"/>
+      <c r="A390" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="14"/>
+      <c r="A391" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
+      <c r="A392" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="14"/>
+      <c r="A394" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
+      <c r="A395" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="14"/>
+      <c r="A396" s="14" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="14"/>
+      <c r="A397" s="14" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
+      <c r="A398" s="14" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="15"/>
+      <c r="A400" s="15" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
+      <c r="A401" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="7"/>
+      <c r="A402" s="7" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
+      <c r="A403" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="15"/>
+      <c r="A404" s="15" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="14"/>
+      <c r="A405" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
+      <c r="A407" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="14"/>
+      <c r="A408" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
+      <c r="A410" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="14"/>
+      <c r="A411" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="14"/>
+      <c r="A412" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
+      <c r="A413" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="14"/>
+      <c r="A414" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
+      <c r="A416" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="14"/>
+      <c r="A417" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
+      <c r="A419" s="14" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="14"/>
+      <c r="A421" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
+      <c r="A422" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
+      <c r="A452" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
+      <c r="A453" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
+      <c r="A454" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
+      <c r="A456" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
+      <c r="A457" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
+      <c r="A458" s="14" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
+      <c r="A459" s="14" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
+      <c r="A460" s="14" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="15"/>
+      <c r="A462" s="15" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="7"/>
+      <c r="A463" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="7"/>
+      <c r="A464" s="7" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="7"/>
+      <c r="A465" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="15"/>
+      <c r="A466" s="15" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
+      <c r="A467" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
+      <c r="A469" s="14" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
+      <c r="A470" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="14"/>
+      <c r="A472" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
+      <c r="A473" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
+      <c r="A474" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
+      <c r="A475" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
+      <c r="A476" s="14" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
+      <c r="A478" s="14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
+      <c r="A479" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
+      <c r="A481" s="14" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
+      <c r="A483" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
+      <c r="A484" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
+      <c r="A485" s="14" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
+      <c r="A486" s="14" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
+      <c r="A487" s="14" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
+      <c r="A488" s="14" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
+      <c r="A489" s="14" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
+      <c r="A490" s="14" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
+      <c r="A491" s="14" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
+      <c r="A493" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
+      <c r="A494" s="14" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
+      <c r="A495" s="14" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="14"/>
+      <c r="A496" s="14" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
+      <c r="A497" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="14"/>
+      <c r="A498" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
+      <c r="A499" s="14" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
+      <c r="A500" s="14" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="14"/>
+      <c r="A501" s="14" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="14"/>
+      <c r="A503" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="14"/>
+      <c r="A504" s="14" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="14"/>
+      <c r="A505" s="14" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="14"/>
+      <c r="A506" s="14" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="14"/>
+      <c r="A507" s="14" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="14"/>
+      <c r="A508" s="14" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="14"/>
+      <c r="A509" s="14" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="14"/>
+      <c r="A510" s="14" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="14"/>
+      <c r="A512" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="14"/>
+      <c r="A513" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="14"/>
+      <c r="A514" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="14"/>
+      <c r="A515" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="14"/>
+      <c r="A516" s="14" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="14"/>
+      <c r="A517" s="14" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="14"/>
+      <c r="A518" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="14"/>
+      <c r="A520" s="14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="14"/>
+      <c r="A521" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="14"/>
+      <c r="A522" s="14" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="14"/>
+      <c r="A523" s="14" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="14"/>
+      <c r="A524" s="14" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="16"/>
@@ -14544,10 +15906,9 @@
       <c r="A526" s="16"/>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="17"/>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="12"/>
+      <c r="A527" s="54" t="s">
+        <v>813</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
+++ b/2018_CCSB_LoadsData_WY2010-2017/Model Stats_rloadest/1_wy2016_2017/1_wwMeHg Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slrose\R\2018_CCSB_LoadsData_WY2010-2017\Model Stats_rloadest\1_wy2016_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FD8CD-6FF6-4DC7-8EE9-584539459011}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4518B22C-9F7F-4975-9ED1-FF7DB6E43883}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wwMeHg wy2016-17 Model Results" sheetId="2" r:id="rId1"/>
@@ -3249,10 +3249,10 @@
     <t>Number of Uncensored Observations: 40; Period of record: 2015-12-19 to 2017-05-15</t>
   </si>
   <si>
-    <t>560, 492</t>
-  </si>
-  <si>
-    <t>43.6, 139</t>
+    <t>17.85, 20.32</t>
+  </si>
+  <si>
+    <t>229.24, 72.17</t>
   </si>
 </sst>
 </file>
@@ -3260,7 +3260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -3694,6 +3694,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3706,15 +3727,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3724,19 +3736,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4317,7 +4317,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4345,18 +4345,18 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="59"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
       <c r="M1" s="48"/>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="60"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="39"/>
       <c r="Q1" s="39"/>
     </row>
@@ -4509,22 +4509,22 @@
       <c r="AL6" s="18"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="67"/>
+      <c r="M7" s="57"/>
       <c r="AC7" s="18" t="s">
         <v>49</v>
       </c>
@@ -5072,22 +5072,22 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="67" t="s">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M20" s="67"/>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:28" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -5608,22 +5608,22 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="68" t="s">
+      <c r="B33" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="67" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M33" s="67"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:28" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -6144,22 +6144,22 @@
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="58" t="s">
         <v>809</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="67" t="s">
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="67"/>
+      <c r="M46" s="57"/>
     </row>
     <row r="47" spans="1:28" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
@@ -6673,26 +6673,26 @@
       <c r="I59" s="62"/>
       <c r="J59" s="62"/>
       <c r="K59" s="63"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="58" t="s">
         <v>1028</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="69"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="67" t="s">
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M60" s="67"/>
+      <c r="M60" s="57"/>
     </row>
     <row r="61" spans="1:28" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
@@ -6848,50 +6848,53 @@
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="11">
         <v>3</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="11">
         <v>0</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="36">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H64" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I64" s="11">
         <v>91.89</v>
       </c>
-      <c r="J64" s="45">
+      <c r="J64" s="11">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="K64" s="45">
+      <c r="K64" s="11">
         <v>0.4541</v>
       </c>
-      <c r="L64" s="45">
+      <c r="L64" s="11">
         <v>-5.3609999999999998</v>
       </c>
       <c r="M64" s="45">
         <v>0.56040000000000001</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="O64" s="37" t="s">
+      <c r="O64" s="41" t="s">
         <v>1029</v>
+      </c>
+      <c r="P64" s="41" t="s">
+        <v>815</v>
       </c>
       <c r="Q64" s="8" t="s">
         <v>16</v>
@@ -7054,54 +7057,52 @@
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
+      <c r="A68" s="6">
         <v>7</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="6">
         <v>0</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="6">
         <v>0</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="6">
         <v>0</v>
       </c>
       <c r="G68" s="71">
         <v>1E-4</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="6">
         <v>94.95</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="6">
         <v>0.1711</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="6">
         <v>0.2447</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="6">
         <v>-11.23</v>
       </c>
       <c r="M68" s="45">
         <v>0.68489999999999995</v>
       </c>
-      <c r="N68" s="41" t="s">
+      <c r="N68" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="O68" s="41" t="s">
+      <c r="O68" s="43" t="s">
         <v>1030</v>
       </c>
-      <c r="P68" s="41" t="s">
-        <v>815</v>
-      </c>
+      <c r="P68" s="43"/>
       <c r="Q68" s="8" t="s">
         <v>16</v>
       </c>
@@ -7214,6 +7215,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="B60:K60"/>
     <mergeCell ref="B20:K20"/>
@@ -7226,12 +7233,6 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="B45:K45"/>
     <mergeCell ref="L46:M46"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="M62:M70 M59 M95:M1048576">
     <cfRule type="cellIs" dxfId="20" priority="45" operator="between">
